--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -2,41 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC1812-5D62-4164-893B-A100B4A6D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C00213-6896-4EBB-9620-E963BA7EAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCA7CF75-F931-45B0-9A4D-86D08D7A34EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -283,28 +272,6 @@
     <t>AN：10</t>
   </si>
   <si>
-    <t>●ウレアホルム(Uf)は微生物によって分解され肥効が発現する緩効的な肥料です</t>
-    <rPh sb="12" eb="15">
-      <t>ビセイブツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンカイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>カンコウテキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●生育期間を通して充実した肥効が期待でき、窒素切れを予防します</t>
     <rPh sb="1" eb="5">
       <t>セイイクキカン</t>
@@ -486,6 +453,469 @@
     <rPh sb="0" eb="2">
       <t>エンゲイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜ﾘﾝ酸入ｼﾞｼｱﾝ化成580</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：13.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●亜リン酸は、通常のリン酸に比べて吸収率が高い為、植物の利用効率が良く</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>キュウシュウリツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>リヨウコウリツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　根の発達を促進します</t>
+    <rPh sb="1" eb="2">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッタツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●硝酸化抑制剤＝ｼﾞｼｱﾝｼﾞｱﾐﾄﾞ(Dd)によって、砂地など流亡しやすい圃場</t>
+    <rPh sb="1" eb="4">
+      <t>ショウサンカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨクセイザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　でも窒素成分を効率的に効かせることができます</t>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ﾎｳ素入園芸専用34号  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ホウ素を含有しているため、特にホウ素が欠乏しやすいアブラナ科作物に</t>
+    <rPh sb="3" eb="4">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガンユウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケツボウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクモツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　対して効果的です</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆将軍586</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ショウグン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●苦土によって光合成促進や樹勢回復、リン酸吸収促進が期待できます</t>
+    <rPh sb="1" eb="3">
+      <t>クド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウゴウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ジュセイカイフク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●リン酸は大豆特有の根粒菌の着生を促進する効果があります</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ダイズトクユウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コンリュウキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チャクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　また、生育や収量に関わり生育初期～開花期に必要となります</t>
+    <rPh sb="4" eb="6">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイカキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾄｸﾎｽｶ444</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾄｸﾎｽｶ488</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｼﾞｼｱﾝ化成570</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾄﾘﾌﾟﾙｴｲﾄA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">きくよ化成特10番    </t>
+    <rPh sb="3" eb="5">
+      <t>カセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜ﾘﾝ酸化成S006(N)</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新東PKﾏｸﾞ</t>
+    <rPh sb="0" eb="2">
+      <t>シントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺｱｰｽ888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量：20㎏</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：13.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：6.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量：20㎏、500㎏</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN：16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ｳﾚｱﾎﾙﾑ(Uf)は微生物によって分解され肥効が発現する緩効的な肥料です</t>
+    <rPh sb="12" eb="15">
+      <t>ビセイブツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カンコウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効かせることが可能です</t>
+  </si>
+  <si>
+    <t>●リン酸やカリウムの補給を考えている方にお勧めの肥料です</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　カリウムによる転流促進によって樹勢の回復が図れる場合があります</t>
+    <rPh sb="8" eb="12">
+      <t>テンリュウソクシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジュセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素を十分に与えているのに生育が良くない場合に、リン酸による根の発達や</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●国内資源活用に向けて、鶏糞燃焼灰をした肥料です</t>
+    <rPh sb="1" eb="3">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイフン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ネンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　アブラナ科作物に対して効果的です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艶肌美人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NK 2号              </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">追肥化成424         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5%粒状過石       </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,26 +1008,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E887C503-E8CE-4FE7-9293-72A3124EE9AD}" name="テーブル1" displayName="テーブル1" ref="A1:Q4" totalsRowShown="0">
-  <autoFilter ref="A1:Q4" xr:uid="{E887C503-E8CE-4FE7-9293-72A3124EE9AD}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{2E213B9E-7D8C-4600-8835-8FBBBE3F04AB}" name="肥料名称"/>
-    <tableColumn id="2" xr3:uid="{FDF46DC6-79F3-4E71-A015-572D402C3623}" name="N"/>
-    <tableColumn id="3" xr3:uid="{75018866-3B48-4BA2-818F-BC627A3AC598}" name="P"/>
-    <tableColumn id="4" xr3:uid="{B9625F0E-329F-48BA-8F7C-39B2B6740004}" name="K"/>
-    <tableColumn id="5" xr3:uid="{B94F4CA5-F553-4B26-A72A-D34D721FE38D}" name="Mg"/>
-    <tableColumn id="6" xr3:uid="{7D11C907-53CF-4CBE-90FE-E519CE1BB863}" name="Mn"/>
-    <tableColumn id="7" xr3:uid="{B89C92AC-B7A0-48C4-ACEC-A37B26585E49}" name="B"/>
-    <tableColumn id="8" xr3:uid="{5D619EAB-B1F6-4B61-823C-F4FE569A6C54}" name="その他1"/>
-    <tableColumn id="9" xr3:uid="{BEA553F9-25F6-4822-A1AD-5DD7D9F395C7}" name="その他2"/>
-    <tableColumn id="10" xr3:uid="{440316DC-F82E-4CC2-B74A-3390F1A64D30}" name="特徴1"/>
-    <tableColumn id="11" xr3:uid="{549FA184-BB06-4BF1-A05C-31BC22E226D5}" name="特徴2"/>
-    <tableColumn id="12" xr3:uid="{8569011E-9FCE-455A-BA3B-7A7E7266CB6B}" name="特徴3"/>
-    <tableColumn id="13" xr3:uid="{92AA2373-642F-4C0D-9D81-1D365B29D71D}" name="特徴4"/>
-    <tableColumn id="14" xr3:uid="{5FD7922A-22F1-47A6-A794-1BB10C834ABA}" name="特徴5"/>
-    <tableColumn id="15" xr3:uid="{A6622137-5F52-46DF-9B0A-EC7C7C0754E4}" name="特徴6"/>
-    <tableColumn id="16" xr3:uid="{3A8C042E-5787-4FE4-8152-43CA0000FF3F}" name="特徴7"/>
-    <tableColumn id="17" xr3:uid="{4A1156BC-7E8D-4B1A-8779-66A0DC1645F9}" name="特徴8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:R19" totalsRowShown="0">
+  <autoFilter ref="A1:R19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="肥料名称"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="コード"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="N"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="P"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="K"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mg"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mn"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="B"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="その他1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="その他2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="特徴1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="特徴2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="特徴3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="特徴4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="特徴5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="特徴6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="特徴7"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="特徴8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -919,218 +1350,738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82A5C2-F84B-4AFE-9E90-248EE1F8D43C}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.08203125" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" customWidth="1"/>
+    <col min="1" max="2" width="18.08203125" customWidth="1"/>
+    <col min="9" max="10" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.3</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
-        <v>40</v>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>17.5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C00213-6896-4EBB-9620-E963BA7EAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D365D1-922D-4CC1-A1BF-BD0E6272FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,15 +907,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">NK 2号              </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">追肥化成424         </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5%粒状過石       </t>
+    <t xml:space="preserve">NK 2号        </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">追肥化成424   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5%粒状過石   </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D365D1-922D-4CC1-A1BF-BD0E6272FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716DF56B-D262-4B01-A96B-AC8DE37C4977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -547,10 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ﾎｳ素入園芸専用34号  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AN：14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -695,19 +691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">きくよ化成特10番    </t>
-    <rPh sb="3" eb="5">
-      <t>カセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>亜ﾘﾝ酸化成S006(N)</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -907,15 +890,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">NK 2号        </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">追肥化成424   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5%粒状過石   </t>
+    <t>ﾎｳ素入園芸専用34号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きくよ化成特10番</t>
+    <rPh sb="3" eb="5">
+      <t>カセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●石灰窒素配合で、非常に肥効が持続します。</t>
+    <rPh sb="1" eb="3">
+      <t>セッカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NK 2号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追肥化成424</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.5%粒状過石</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1353,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
@@ -1610,12 +1632,12 @@
         <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -1639,18 +1661,18 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1674,21 +1696,21 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1712,12 +1734,12 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1738,15 +1760,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1770,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -1779,7 +1801,7 @@
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
@@ -1790,7 +1812,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1811,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -1822,7 +1844,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1843,15 +1865,18 @@
         <v>0.3</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1875,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
@@ -1886,7 +1911,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1910,21 +1935,21 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1945,13 +1970,13 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -1959,7 +1984,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1980,21 +2005,21 @@
         <v>0.3</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2015,15 +2040,15 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -2044,15 +2069,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2073,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716DF56B-D262-4B01-A96B-AC8DE37C4977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815378B7-95FF-498B-87BB-8CEDDA21BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -160,29 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●ｼﾞｼｱﾝｼﾞｱﾐﾄﾞによって、砂地など流亡しやすい圃場でも窒素成分を効率的に</t>
-    <rPh sb="17" eb="19">
-      <t>スナジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>リュウボウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホジョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　効かせることが可能です</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●緩効性肥料のため、追肥回数の省力化が期待できます</t>
     <rPh sb="1" eb="4">
       <t>カンコウセイ</t>
@@ -364,40 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●微量要素の相乗効果により作物の活性を向上させ、生育促進や品質向上に</t>
-    <rPh sb="1" eb="5">
-      <t>ビリョウヨウソ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ソウジョウコウカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクモツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カッセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ソクシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つながります</t>
-  </si>
-  <si>
     <t>●基肥や追肥の施肥と同時に微量要素を補給できるため、労力の軽減も</t>
     <rPh sb="1" eb="3">
       <t>モトゴエ</t>
@@ -426,13 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期待できます</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●不足しがちな微量要素を満遍なく補うことができます</t>
     <rPh sb="1" eb="3">
       <t>フソク</t>
@@ -530,59 +466,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●硝酸化抑制剤＝ｼﾞｼｱﾝｼﾞｱﾐﾄﾞ(Dd)によって、砂地など流亡しやすい圃場</t>
-    <rPh sb="1" eb="4">
-      <t>ショウサンカ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヨクセイザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　でも窒素成分を効率的に効かせることができます</t>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AN：14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●ホウ素を含有しているため、特にホウ素が欠乏しやすいアブラナ科作物に</t>
-    <rPh sb="3" eb="4">
-      <t>ソ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガンユウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ソ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケツボウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サクモツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　対して効果的です</t>
-    <rPh sb="1" eb="2">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>コウカテキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -757,31 +641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●ｳﾚｱﾎﾙﾑ(Uf)は微生物によって分解され肥効が発現する緩効的な肥料です</t>
-    <rPh sb="12" eb="15">
-      <t>ビセイブツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンカイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>カンコウテキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　効かせることが可能です</t>
-  </si>
-  <si>
     <t>●リン酸やカリウムの補給を考えている方にお勧めの肥料です</t>
     <rPh sb="3" eb="4">
       <t>サン</t>
@@ -804,56 +663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　カリウムによる転流促進によって樹勢の回復が図れる場合があります</t>
-    <rPh sb="8" eb="12">
-      <t>テンリュウソクシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジュセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ハカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●窒素を十分に与えているのに生育が良くない場合に、リン酸による根の発達や</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッタツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●国内資源活用に向けて、鶏糞燃焼灰をした肥料です</t>
     <rPh sb="1" eb="3">
       <t>コクナイ</t>
@@ -938,6 +747,266 @@
   </si>
   <si>
     <t>17.5%粒状過石</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ｼﾞｼｱﾝｼﾞｱﾐﾄﾞによって、砂地など流亡しやすい圃場でも窒素成分を</t>
+    <rPh sb="17" eb="19">
+      <t>スナジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リュウボウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効率的に効かせることが可能です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●苦土で光合成促進や樹勢回復、リン酸吸収促進が期待出来ます</t>
+    <rPh sb="1" eb="3">
+      <t>クド</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウゴウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肥料です</t>
+  </si>
+  <si>
+    <t>●ｳﾚｱﾎﾙﾑ(Uf)は微生物によって分解され肥効が発現する緩効的な</t>
+    <rPh sb="12" eb="15">
+      <t>ビセイブツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カンコウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●微量要素の相乗効果により作物の活性を向上させ、生育促進や</t>
+    <rPh sb="1" eb="5">
+      <t>ビリョウヨウソ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ソウジョウコウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソクシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　品質向上につながります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待できます</t>
+    <rPh sb="1" eb="3">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●硝酸化抑制剤＝ｼﾞｼｱﾝｼﾞｱﾐﾄﾞ(Dd)によって、砂地など流亡しやすい</t>
+    <rPh sb="1" eb="4">
+      <t>ショウサンカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨクセイザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　圃場でも窒素成分を効率的に効かせることができます</t>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ホウ素を含有しているため、特にホウ素が欠乏しやすいアブラナ科</t>
+    <rPh sb="3" eb="4">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガンユウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケツボウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　作物に対して効果的です</t>
+    <rPh sb="1" eb="3">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効率的に効かせることが可能です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●亜リン酸は、通常のリン酸に比べて吸収率が高い為、植物の</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>キュウシュウリツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　利用効率が良く根の発達を促進します</t>
+    <rPh sb="8" eb="9">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッタツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソクシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素を十分に与えているのに生育が良くない場合に、リン酸による</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　根の発達やカリウムによる転流促進によって樹勢の回復が図れる</t>
+    <rPh sb="13" eb="17">
+      <t>テンリュウソクシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　場合があります</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1375,14 +1444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="18.08203125" customWidth="1"/>
     <col min="9" max="10" width="9.08203125" customWidth="1"/>
+    <col min="11" max="18" width="59.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1390,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1473,27 +1543,27 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -1514,28 +1584,31 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1561,30 +1634,30 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1608,36 +1681,36 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -1661,18 +1734,18 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1696,21 +1769,21 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1734,12 +1807,12 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1760,15 +1833,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1792,27 +1865,27 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1833,18 +1906,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1865,18 +1938,18 @@
         <v>0.3</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1900,18 +1973,18 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1935,21 +2008,24 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1970,21 +2046,21 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
         <v>64</v>
       </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2005,21 +2081,21 @@
         <v>0.3</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2040,15 +2116,15 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -2069,15 +2145,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2098,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815378B7-95FF-498B-87BB-8CEDDA21BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B40538-717C-4AD8-BBA2-34122701D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1007,6 +1007,45 @@
   </si>
   <si>
     <t>　場合があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●どんな作物の追肥として使用できます。</t>
+    <rPh sb="4" eb="6">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●どんな作物にも使用できます。</t>
+    <rPh sb="4" eb="6">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ﾘﾝ酸補給に効果的です。</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1014,7 +1053,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1064,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1071,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1126,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1444,13 +1494,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="18.08203125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" customWidth="1"/>
     <col min="9" max="10" width="9.08203125" customWidth="1"/>
     <col min="11" max="18" width="59.58203125" customWidth="1"/>
   </cols>
@@ -1656,7 +1707,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C5">
@@ -1809,6 +1860,9 @@
       <c r="J8" t="s">
         <v>54</v>
       </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -1838,6 +1892,9 @@
       <c r="J9" t="s">
         <v>54</v>
       </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -2093,7 +2150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="J17" t="s">
         <v>62</v>
       </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2150,8 +2210,11 @@
       <c r="J18" t="s">
         <v>62</v>
       </c>
+      <c r="K18" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2175,6 +2238,9 @@
       </c>
       <c r="I19" t="s">
         <v>55</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B40538-717C-4AD8-BBA2-34122701D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110815C7-4279-469D-8FC1-A6D0C4E6F558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,22 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>亜ﾘﾝ酸入ｼﾞｼｱﾝ化成580</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AN：13.5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1045,6 +1029,19 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜ﾘﾝ酸ｼﾞｼｱﾝ化成580</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1495,7 +1492,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1594,16 +1591,16 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
         <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -1641,10 +1638,10 @@
         <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -1691,16 +1688,16 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
         <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
       </c>
       <c r="M4" t="s">
         <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -1708,7 +1705,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1732,19 +1729,19 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
       <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -1756,12 +1753,12 @@
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -1785,18 +1782,18 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1820,21 +1817,21 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1858,15 +1855,15 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1887,18 +1884,18 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1922,16 +1919,16 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1942,7 +1939,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1963,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
         <v>23</v>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1995,18 +1992,18 @@
         <v>0.3</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -2030,18 +2027,18 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2065,24 +2062,24 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
       </c>
       <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" t="s">
         <v>88</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>89</v>
-      </c>
-      <c r="O14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -2103,13 +2100,13 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2138,21 +2135,21 @@
         <v>0.3</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2173,18 +2170,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -2205,18 +2202,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2237,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110815C7-4279-469D-8FC1-A6D0C4E6F558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD7566-8929-4196-AF5D-69F9418A7F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="213">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1043,6 +1043,803 @@
     <rPh sb="9" eb="11">
       <t>カセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ｺｼﾋｶﾘ専用化成086    </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ｺｼﾋｶﾘ専用の元肥化成です。</t>
+    <rPh sb="6" eb="8">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モトゴエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ﾘﾝ酸が多く配合されており、初期生育に役立ちます。</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショキセイイク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">園芸黒化成          </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●含有している石灰窒素は緩効的な肥効を示し、土壌中で起こる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　硝酸化成作用を抑制しますので効率が良く、穏やかな肥効を示します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●苦土、ほう素を含有しておりますので園芸作物全般に元肥、追肥と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>して安心してご使用いただけます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ｴｽﾎｽｶ 264(側条)     </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●側条施肥専用肥料として粒の硬度、粒形に細心の注意をはらい製造</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　していますので、ムラ無く均一に施肥できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾎｰｿ入り園芸化成488</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●尿素を使用しておりませんので、トンネル・ハウスにも安心して</t>
+    <rPh sb="1" eb="3">
+      <t>ニョウソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ご使用いただけます。</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●必要なホーソを含有しておりますので、欠乏症の予想に効果的です。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガンユウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケツボウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾜﾝｵｰﾙ464A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●初期生育から効く速効性肥料と中～後期生育に効く複数の緩効性</t>
+    <rPh sb="1" eb="5">
+      <t>ショキセイイク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カンコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　窒素肥料を原料として水稲の生育期間を通して安定して肥効が出現</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　するように作られた水稲元肥施肥に対応出来る化成肥料です。</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モトゴエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●被覆殻がありませんので、より環境に優しい施肥をする事が出来ます。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヤサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セヒ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金鱗高度473         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●リン酸2アンモニア主体の高度化成ですから土壌を悪変せず、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　土壌を悪変せず、すぐれた肥効を表します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｽｰﾊﾟｰﾆﾄﾛ580</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●植物がそのまま吸収できる硝酸性窒素を3％含んでおりますので、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　作物の初期生育を促進します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●苦土・マンガン・ホウソが含まれておりますので、微量要素の補給に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　好適です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">硫加燐安S550 細粒   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●細粒品ですので、土壌となじみやすく、速やかに肥効をあらわします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●硫酸カリを使用していますので、根にやさしく 土壌をあらしにくい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燐加安15号A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●作物全般に使用でき、元肥・追肥ともにご使用頂けます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●燐安・硫安・尿素の3種類を含んでおりますので優れた肥効が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待出来ます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﾛﾝｸﾞﾊﾟﾜｰ A          </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UN:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●緩効性チッソ（ウラホルム）の効果により、長期間安定した肥効が　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待できますので、初期生育から後半の生育までゆっくり効き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　「追肥」を省くことができます。</t>
+  </si>
+  <si>
+    <t>高度化成48号A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●高成分の高度化成です。</t>
+    <rPh sb="1" eb="4">
+      <t>コウセイブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｼﾞｼｱﾝﾀﾞｯｼｭS680</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●【気温の低い場面で優れた肥効を示す硝酸態窒素】と【アンモニア態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　窒素から硝酸態窒素への移行を穏やかにして、窒素成分を無駄なく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効率的に効かせる事ができるジシアンジアミド（硝酸化成抑制材）】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　を組み合わせた化成肥料で、気温の低い時期に定植する作型や、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　寒冷地・標高の高い地域で生育の長い作物を栽培する場合に適してい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NK 626              </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●安定多収を追及した水稲、野菜向けの追肥用化成です。　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ｺﾞｰﾙﾃﾞﾝ ﾎｽｶ         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●チッ素を含んでいませんので、水稲の追肥として使用する場合、倒状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　の心配が少なく安心して施用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●リン酸・クドの相乗効果により効率的な肥効が期待出来ます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺﾌﾚﾝｽﾞN25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ﾏｲｸﾛﾌﾟﾗｽﾁｯｸ問題に対応した肥料です。</t>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●被覆肥料を使用せず、緩効性の肥効を実現しております。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒフク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カンコウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｿﾗﾏｷ君</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ﾄﾞﾛｰﾝ専用の肥料です。</t>
+    <rPh sb="6" eb="8">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●粒径は小粒なので撒きムラが起こりにくく均一に散布出来ます。</t>
+    <rPh sb="1" eb="2">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コツブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンイツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンプ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●化成肥料なので一粒一粒の成分が均一です。</t>
+    <rPh sb="1" eb="3">
+      <t>カセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチツブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒトツブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キンイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ｶﾘ、ｸﾄﾞが養分の転流を促して、登熟、品質を向上させます。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンリュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウジュク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8.8化成           </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●万能な化成肥料です。</t>
+    <rPh sb="1" eb="3">
+      <t>バンノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｽｰﾊﾟｰｱﾐﾉDX特一発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●厳選した動・植物質有機を使用し、チッソ全量の内５０％を有機態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　チッソで保証していますので、特別栽培農産物の施肥に最適です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●有機態チッソと緩効性チッソの肥効が安定して続きますので、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　一発栽培が可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ｽｰﾊﾟｰｱﾐﾉ ２号       </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●有機態チッソと緩効態チッソを含有していますので、速・緩・遅の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　バランスの良い肥効を現します。また、肥料利用率が高く無駄のない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　肥効が期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ｽｰﾊﾟｰｱﾐﾉ３号        </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｽｰﾊﾟｰｱﾐﾉDX特S10号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●天然高級有機を豊富に含有し、野菜、果樹、花卉などあらゆる農作物</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　の品質を高めるために開発された特別栽培適応の有機化成肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ﾌﾛﾝﾃｨｱ8号           </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●良質な天然有機質原料と、無機質原料をバランス良く使用して製造</t>
+    <rPh sb="29" eb="31">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　しておりますので、作物の健全な生育と良品多収に効果的な肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ﾌﾛﾝﾃｨｱ30号          </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｱｼﾞﾌﾟﾗｽ 181</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●速・緩・遅効性の様々なタイプの養分が含まれていますので、流亡</t>
+    <rPh sb="1" eb="2">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リュウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　や肥切れが少なく肥効にむだがあります。</t>
+    <rPh sb="2" eb="3">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野菜化成480</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ほう素を多く含んでいますので、特に大根やカブ等のアブラナ科の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　作物の元肥として最適です。その他、幅広い園芸作物に安心して</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ご使用頂けます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新東骨粉入り264A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●天然有機質の骨粉を加えてありますので、安定したリン酸の肥効が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待出来ます。又、リン酸が不溶化しやすい火山灰土壌などでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　リン酸の固定が少なく、優れた肥効を示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺﾌﾟﾗｽ S088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ジシアンジアミド・天然動植物有機等をバランス良く含有して</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　おりますので硝酸態チッソの流亡を抑制します。さらに天然有機質</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　との相乗効果で長期間安定した肥効を保ち、作物の品質向上、多収が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾊｲﾖｰｶﾘﾝ35号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●りん酸の含有形態が「水溶性」と「く溶性」で約半々となっており</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ますので、初期効果と持続性の両方の効果を示し、あらゆる作物の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　元肥に最適な高成分りん酸肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｸﾄﾞﾐﾈﾗﾙ新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量：15㎏</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●定植後の活着が早く、初期生育が順調になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●健全な生育を促し、異常気象下での 障害緩和が期待できます 。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●根張りをよくし、樹勢低下の防止・樹勢回復に役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●各種要素の欠乏害を防止します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●品質のよい収穫物の安定多収が期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特栽ｺｼ一発297</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●全窒素の半分を有機態窒素で確保した特別栽培好適の肥料です。</t>
+    <rPh sb="5" eb="7">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●生育期間を通じて安定した肥効が期待出来ます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｼﾞｼｱﾝﾌﾟﾗｽ562</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●硝酸化成抑制材（ジシアンジアミド）と緩効性窒素肥料を含んだ園芸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　向けの高機能な肥効安定型の化成肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●硝酸化成抑制材が降雨や流水による窒素成分の流亡を抑え、肥料成分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　を無駄にしません。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1050,7 +1847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,16 +1871,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1101,12 +1919,89 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="5" tint="0.59996337778862885"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1115,24 +2010,96 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1146,27 +2113,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:R19" totalsRowShown="0">
-  <autoFilter ref="A1:R19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}" name="テーブル1" displayName="テーブル1" ref="A1:R50" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:R50" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="肥料名称"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="コード"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="N"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="P"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="K"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mg"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mn"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="B"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="その他1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="その他2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="特徴1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="特徴2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="特徴3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="特徴4"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="特徴5"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="特徴6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="特徴7"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="特徴8"/>
+    <tableColumn id="1" xr3:uid="{9C2D42A2-C447-46D2-AB81-8DC4759FDA44}" name="肥料名称"/>
+    <tableColumn id="2" xr3:uid="{287016DE-955D-4307-8B2C-216E15104F51}" name="コード"/>
+    <tableColumn id="3" xr3:uid="{E3D8FFBB-D328-4A17-9DC3-4A98283DB557}" name="N"/>
+    <tableColumn id="4" xr3:uid="{6CB4C641-9678-4447-9138-1A2AE6CCD1D6}" name="P"/>
+    <tableColumn id="5" xr3:uid="{C5E27F99-7200-49AD-94BC-75E50D398CEC}" name="K"/>
+    <tableColumn id="6" xr3:uid="{EA1DA003-8AED-45F8-AC97-E3D740B87F2F}" name="Mg"/>
+    <tableColumn id="7" xr3:uid="{375D043D-84A2-4973-9325-C7E9D827F911}" name="Mn"/>
+    <tableColumn id="8" xr3:uid="{7BC6A4A0-3175-47D8-A1F9-43CD7CE96568}" name="B"/>
+    <tableColumn id="9" xr3:uid="{A2628A7F-CFD3-4638-B812-BD2D4D351396}" name="その他1"/>
+    <tableColumn id="10" xr3:uid="{3D0A819A-56D7-40C7-AD5A-5572D6913397}" name="その他2"/>
+    <tableColumn id="11" xr3:uid="{F5B76008-6003-46CF-815B-33FB048BF2D8}" name="特徴1"/>
+    <tableColumn id="12" xr3:uid="{39ADAEBD-39BA-4853-BF14-55B698700738}" name="特徴2"/>
+    <tableColumn id="13" xr3:uid="{A80A757C-0D47-4438-94B7-9EF607EA42A4}" name="特徴3"/>
+    <tableColumn id="14" xr3:uid="{F075AC1C-CBFE-474D-A9AF-19B45439E1EB}" name="特徴4"/>
+    <tableColumn id="15" xr3:uid="{F111E578-4F8D-433F-89B1-4D045E73CE53}" name="特徴5"/>
+    <tableColumn id="16" xr3:uid="{B64854A3-2FE1-41C2-81EF-1C56429A4E5C}" name="特徴6"/>
+    <tableColumn id="17" xr3:uid="{97648415-F9CE-4ED2-B32F-20177196714C}" name="特徴7"/>
+    <tableColumn id="18" xr3:uid="{A95AC7BB-040C-4B8A-A081-16A1C476943C}" name="特徴8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1504,740 +2471,1931 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0.3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>0.1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>0.2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0.1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>0.2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <v>0.3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0.3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>0.1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <v>0.2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="10" t="s">
         <v>86</v>
       </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="10">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>0.2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>1.2</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>14</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
         <v>17.5</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0.4</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1.5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="s">
+        <v>141</v>
+      </c>
+      <c r="N31" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>152</v>
+      </c>
+      <c r="L34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M35" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M37" t="s">
+        <v>164</v>
+      </c>
+      <c r="N37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" t="s">
+        <v>168</v>
+      </c>
+      <c r="M38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0.1</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>175</v>
+      </c>
+      <c r="L42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>179</v>
+      </c>
+      <c r="L43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>186</v>
+      </c>
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s">
+        <v>191</v>
+      </c>
+      <c r="M46" t="s">
+        <v>192</v>
+      </c>
+      <c r="N46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>4.5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>195</v>
+      </c>
+      <c r="L47" t="s">
+        <v>196</v>
+      </c>
+      <c r="M47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>0.2</v>
+      </c>
+      <c r="H48">
+        <v>0.3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>199</v>
+      </c>
+      <c r="K48" t="s">
+        <v>200</v>
+      </c>
+      <c r="L48" t="s">
+        <v>201</v>
+      </c>
+      <c r="M48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" t="s">
+        <v>203</v>
+      </c>
+      <c r="O48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>206</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" t="s">
+        <v>210</v>
+      </c>
+      <c r="M50" t="s">
+        <v>211</v>
+      </c>
+      <c r="N50" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD7566-8929-4196-AF5D-69F9418A7F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326411D-9838-4953-B744-E3C408988601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29910" yWindow="4035" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,10 +1046,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ｺｼﾋｶﾘ専用化成086    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●ｺｼﾋｶﾘ専用の元肥化成です。</t>
     <rPh sb="6" eb="8">
       <t>センヨウ</t>
@@ -1082,10 +1078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">園芸黒化成          </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●含有している石灰窒素は緩効的な肥効を示し、土壌中で起こる</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1099,10 +1091,6 @@
   </si>
   <si>
     <t>して安心してご使用いただけます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ｴｽﾎｽｶ 264(側条)     </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>●側条施肥専用肥料として粒の硬度、粒形に細心の注意をはらい製造</t>
@@ -1290,10 +1278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">金鱗高度473         </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●リン酸2アンモニア主体の高度化成ですから土壌を悪変せず、</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1326,10 +1310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">硫加燐安S550 細粒   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●細粒品ですので、土壌となじみやすく、速やかに肥効をあらわします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1355,10 +1335,6 @@
   </si>
   <si>
     <t>　期待出来ます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ﾛﾝｸﾞﾊﾟﾜｰ A          </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UN:4</t>
@@ -1421,15 +1397,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">NK 626              </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●安定多収を追及した水稲、野菜向けの追肥用化成です。　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ｺﾞｰﾙﾃﾞﾝ ﾎｽｶ         </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1570,10 +1538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">8.8.8化成           </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●万能な化成肥料です。</t>
     <rPh sb="1" eb="3">
       <t>バンノウ</t>
@@ -1607,10 +1571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ｽｰﾊﾟｰｱﾐﾉ ２号       </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●有機態チッソと緩効態チッソを含有していますので、速・緩・遅の</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1623,10 +1583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ｽｰﾊﾟｰｱﾐﾉ３号        </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｽｰﾊﾟｰｱﾐﾉDX特S10号</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1636,10 +1592,6 @@
   </si>
   <si>
     <t>　の品質を高めるために開発された特別栽培適応の有機化成肥料です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ﾌﾛﾝﾃｨｱ8号           </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1654,10 +1606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ﾌﾛﾝﾃｨｱ30号          </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｱｼﾞﾌﾟﾗｽ 181</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1840,6 +1788,58 @@
   </si>
   <si>
     <t>　を無駄にしません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｺｼﾋｶﾘ専用化成086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園芸黒化成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｽﾎｽｶ 264(側条)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金鱗高度473</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>硫加燐安S550 細粒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾛﾝｸﾞﾊﾟﾜｰ A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NK 626</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｺﾞｰﾙﾃﾞﾝ ﾎｽｶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8.8化成  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｽｰﾊﾟｰｱﾐﾉ ２号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｽｰﾊﾟｰｱﾐﾉ３号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾌﾛﾝﾃｨｱ8号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾌﾛﾝﾃｨｱ30号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2014,40 +2014,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2056,7 +2056,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2067,6 +2067,13 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2092,13 +2099,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2113,7 +2113,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}" name="テーブル1" displayName="テーブル1" ref="A1:R50" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}" name="テーブル1" displayName="テーブル1" ref="A1:R50" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:R50" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{9C2D42A2-C447-46D2-AB81-8DC4759FDA44}" name="肥料名称"/>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3342,15 +3342,15 @@
         <v>11</v>
       </c>
       <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
         <v>95</v>
-      </c>
-      <c r="L20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -3374,21 +3374,21 @@
         <v>11</v>
       </c>
       <c r="K21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" t="s">
         <v>98</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>99</v>
-      </c>
-      <c r="M21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -3412,15 +3412,15 @@
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -3444,18 +3444,18 @@
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -3479,21 +3479,21 @@
         <v>11</v>
       </c>
       <c r="K24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" t="s">
         <v>110</v>
-      </c>
-      <c r="L24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -3517,15 +3517,15 @@
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -3549,24 +3549,24 @@
         <v>11</v>
       </c>
       <c r="J26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" t="s">
         <v>118</v>
-      </c>
-      <c r="K26" t="s">
-        <v>119</v>
-      </c>
-      <c r="L26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" t="s">
-        <v>121</v>
-      </c>
-      <c r="N26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -3590,18 +3590,18 @@
         <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -3625,18 +3625,18 @@
         <v>11</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -3660,21 +3660,21 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -3698,12 +3698,12 @@
         <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -3727,27 +3727,27 @@
         <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -3771,12 +3771,12 @@
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3800,18 +3800,18 @@
         <v>11</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -3835,15 +3835,15 @@
         <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C35">
         <v>30</v>
@@ -3867,21 +3867,21 @@
         <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N35" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -3905,12 +3905,12 @@
         <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -3934,21 +3934,21 @@
         <v>11</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -3972,18 +3972,18 @@
         <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M38" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -4007,18 +4007,18 @@
         <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -4042,15 +4042,15 @@
         <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -4074,15 +4074,15 @@
         <v>11</v>
       </c>
       <c r="K41" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -4106,15 +4106,15 @@
         <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -4138,15 +4138,15 @@
         <v>11</v>
       </c>
       <c r="K43" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C44">
         <v>14</v>
@@ -4170,18 +4170,18 @@
         <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -4205,18 +4205,18 @@
         <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -4240,21 +4240,21 @@
         <v>11</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="M46" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="N46" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4278,18 +4278,18 @@
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M47" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4310,27 +4310,27 @@
         <v>0.3</v>
       </c>
       <c r="I48" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K48" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="N48" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O48" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -4354,15 +4354,15 @@
         <v>11</v>
       </c>
       <c r="K49" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -4386,16 +4386,16 @@
         <v>11</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L50" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M50" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N50" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326411D-9838-4953-B744-E3C408988601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3313F64-845A-4269-B292-381A8F39B5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29910" yWindow="4035" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1823,10 +1823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">8.8.8化成  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｽｰﾊﾟｰｱﾐﾉ ２号</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1840,6 +1836,10 @@
   </si>
   <si>
     <t>ﾌﾛﾝﾃｨｱ30号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.8.8化成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2459,7 +2459,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42">
         <v>10</v>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3313F64-845A-4269-B292-381A8F39B5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF508D8-56AA-4EAC-ADBF-6B41BC8D0474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="215">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1840,6 +1840,29 @@
   </si>
   <si>
     <t>8.8.8化成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量：5㎏×3個</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小粒品</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2459,7 +2482,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3864,7 +3887,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>213</v>
+      </c>
+      <c r="J35" t="s">
+        <v>214</v>
       </c>
       <c r="K35" t="s">
         <v>147</v>

--- a/銘柄データ_化成.xlsx
+++ b/銘柄データ_化成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF508D8-56AA-4EAC-ADBF-6B41BC8D0474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FCBB5-D65D-4741-A5B2-A9438F65E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="224">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1862,6 +1862,150 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｼﾞｼｱﾝﾀｰﾎﾞS789</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●低温時でもしっかり効く硝酸態窒素と窒素成分を無駄なく効率的に</t>
+    <rPh sb="1" eb="3">
+      <t>テイオン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効かせる事が出来るジシアンジアミドの相互作業により、初期生育</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　を充実させるとともに生育中後期にかけても安定した肥効を示します。</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾛﾝｸﾞｿﾗﾏｷ君</t>
+    <rPh sb="8" eb="9">
+      <t>クン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量：10㎏</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ドローン専用の高窒素タイプです。</t>
+    <rPh sb="5" eb="7">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウチッソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●小粒サイズで散布ムラが起こりにくいです。</t>
+    <rPh sb="1" eb="3">
+      <t>コツブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンプ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●有機態チッソと緩効性チッソを含む、長期間に安定した肥効です。</t>
+    <rPh sb="15" eb="16">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>チョウキカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2136,8 +2280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}" name="テーブル1" displayName="テーブル1" ref="A1:R50" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:R50" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}" name="テーブル1" displayName="テーブル1" ref="A1:R52" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:R52" xr:uid="{7B447E3B-A23B-48E7-A6B3-540C89D7B2D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{9C2D42A2-C447-46D2-AB81-8DC4759FDA44}" name="肥料名称"/>
     <tableColumn id="2" xr3:uid="{287016DE-955D-4307-8B2C-216E15104F51}" name="コード"/>
@@ -2479,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4424,6 +4568,76 @@
         <v>199</v>
       </c>
     </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>0.1</v>
+      </c>
+      <c r="H51">
+        <v>0.1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>216</v>
+      </c>
+      <c r="L51" t="s">
+        <v>217</v>
+      </c>
+      <c r="M51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0.1</v>
+      </c>
+      <c r="H52">
+        <v>0.1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>220</v>
+      </c>
+      <c r="K52" t="s">
+        <v>221</v>
+      </c>
+      <c r="L52" t="s">
+        <v>222</v>
+      </c>
+      <c r="M52" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
